--- a/stock_predictor_ai/data/cleaned/CRWD.xlsx
+++ b/stock_predictor_ai/data/cleaned/CRWD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1522"/>
+  <dimension ref="A1:F1523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30889,6 +30889,26 @@
         <v>500233</v>
       </c>
     </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>511.6900024414062</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>512.9600219726562</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>507.5400085449219</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>511.989990234375</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>236352</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/CRWD.xlsx
+++ b/stock_predictor_ai/data/cleaned/CRWD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1523"/>
+  <dimension ref="A1:F1524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30909,6 +30909,26 @@
         <v>236352</v>
       </c>
     </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>473.2799987792969</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>480.7200012207031</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>470.5199890136719</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>479.0899963378906</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>2526000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/CRWD.xlsx
+++ b/stock_predictor_ai/data/cleaned/CRWD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1524"/>
+  <dimension ref="A1:F1525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30929,6 +30929,26 @@
         <v>2526000</v>
       </c>
     </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>485.4200134277344</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>490.0400085449219</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>477.10009765625</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>478.7149963378906</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>810783</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/CRWD.xlsx
+++ b/stock_predictor_ai/data/cleaned/CRWD.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1525"/>
+  <dimension ref="A1:F1526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30949,6 +30949,26 @@
         <v>810783</v>
       </c>
     </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>412.3262939453125</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>418</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>407.6950073242188</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>417.1090087890625</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>2184207</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/CRWD.xlsx
+++ b/stock_predictor_ai/data/cleaned/CRWD.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1526"/>
+  <dimension ref="A1:F1521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30869,106 +30871,6 @@
         <v>3464800</v>
       </c>
     </row>
-    <row r="1522">
-      <c r="A1522" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B1522" t="n">
-        <v>511.2564086914062</v>
-      </c>
-      <c r="C1522" t="n">
-        <v>511.6799011230469</v>
-      </c>
-      <c r="D1522" t="n">
-        <v>499.989990234375</v>
-      </c>
-      <c r="E1522" t="n">
-        <v>500</v>
-      </c>
-      <c r="F1522" t="n">
-        <v>500233</v>
-      </c>
-    </row>
-    <row r="1523">
-      <c r="A1523" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B1523" t="n">
-        <v>511.6900024414062</v>
-      </c>
-      <c r="C1523" t="n">
-        <v>512.9600219726562</v>
-      </c>
-      <c r="D1523" t="n">
-        <v>507.5400085449219</v>
-      </c>
-      <c r="E1523" t="n">
-        <v>511.989990234375</v>
-      </c>
-      <c r="F1523" t="n">
-        <v>236352</v>
-      </c>
-    </row>
-    <row r="1524">
-      <c r="A1524" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B1524" t="n">
-        <v>473.2799987792969</v>
-      </c>
-      <c r="C1524" t="n">
-        <v>480.7200012207031</v>
-      </c>
-      <c r="D1524" t="n">
-        <v>470.5199890136719</v>
-      </c>
-      <c r="E1524" t="n">
-        <v>479.0899963378906</v>
-      </c>
-      <c r="F1524" t="n">
-        <v>2526000</v>
-      </c>
-    </row>
-    <row r="1525">
-      <c r="A1525" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B1525" t="n">
-        <v>485.4200134277344</v>
-      </c>
-      <c r="C1525" t="n">
-        <v>490.0400085449219</v>
-      </c>
-      <c r="D1525" t="n">
-        <v>477.10009765625</v>
-      </c>
-      <c r="E1525" t="n">
-        <v>478.7149963378906</v>
-      </c>
-      <c r="F1525" t="n">
-        <v>810783</v>
-      </c>
-    </row>
-    <row r="1526">
-      <c r="A1526" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B1526" t="n">
-        <v>412.3262939453125</v>
-      </c>
-      <c r="C1526" t="n">
-        <v>418</v>
-      </c>
-      <c r="D1526" t="n">
-        <v>407.6950073242188</v>
-      </c>
-      <c r="E1526" t="n">
-        <v>417.1090087890625</v>
-      </c>
-      <c r="F1526" t="n">
-        <v>2184207</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
